--- a/REGULAR/CASUAL-REGULAR FINAL/LEGASPI, DOLORES.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/LEGASPI, DOLORES.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB1CEA3-15FC-4119-9453-72E70388B728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -909,7 +908,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1596,7 +1595,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1613,25 +1612,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K486" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K486" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1938,7 +1937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1947,25 +1946,25 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2520" topLeftCell="A428" activePane="bottomLeft"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="F448" sqref="F448"/>
+      <selection pane="bottomLeft" activeCell="C439" sqref="C439"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1986,7 +1985,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2004,7 +2003,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2024,7 +2023,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2032,7 +2031,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2045,7 +2044,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -2062,7 +2061,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2106,7 +2105,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>12.653000000000134</v>
+        <v>13.903000000000134</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2116,12 +2115,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>167.5</v>
+        <v>168.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>87</v>
       </c>
@@ -2136,7 +2135,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>35591</v>
       </c>
@@ -2156,7 +2155,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>35612</v>
       </c>
@@ -2176,7 +2175,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>35643</v>
@@ -2197,7 +2196,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f>EDATE(A13,1)</f>
         <v>35674</v>
@@ -2218,7 +2217,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" ref="A15:A17" si="0">EDATE(A14,1)</f>
         <v>35704</v>
@@ -2239,7 +2238,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -2260,7 +2259,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -2281,7 +2280,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>88</v>
       </c>
@@ -2299,7 +2298,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f>EDATE(A17,1)</f>
         <v>35796</v>
@@ -2320,7 +2319,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f>EDATE(A19,1)</f>
         <v>35827</v>
@@ -2341,7 +2340,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" ref="A21:A29" si="1">EDATE(A20,1)</f>
         <v>35855</v>
@@ -2362,7 +2361,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -2383,7 +2382,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -2412,7 +2411,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -2437,7 +2436,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -2458,7 +2457,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -2479,7 +2478,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -2500,7 +2499,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -2521,7 +2520,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="1"/>
         <v>36100</v>
@@ -2548,7 +2547,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f>EDATE(A29,1)</f>
         <v>36130</v>
@@ -2569,7 +2568,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>92</v>
       </c>
@@ -2587,7 +2586,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="52"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f>EDATE(A30,1)</f>
         <v>36161</v>
@@ -2608,7 +2607,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f>EDATE(A32,1)</f>
         <v>36192</v>
@@ -2629,7 +2628,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f>EDATE(A33,1)</f>
         <v>36220</v>
@@ -2650,7 +2649,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" ref="A35:A44" si="2">EDATE(A34,1)</f>
         <v>36251</v>
@@ -2671,7 +2670,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f t="shared" si="2"/>
         <v>36281</v>
@@ -2692,7 +2691,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f t="shared" si="2"/>
         <v>36312</v>
@@ -2717,7 +2716,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>94</v>
@@ -2736,7 +2735,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f>EDATE(A37,1)</f>
         <v>36342</v>
@@ -2763,7 +2762,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="2"/>
         <v>36373</v>
@@ -2790,7 +2789,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="2"/>
         <v>36404</v>
@@ -2811,7 +2810,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="2"/>
         <v>36434</v>
@@ -2836,7 +2835,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="2"/>
         <v>36465</v>
@@ -2857,7 +2856,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f t="shared" si="2"/>
         <v>36495</v>
@@ -2878,7 +2877,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>101</v>
       </c>
@@ -2896,7 +2895,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f>EDATE(A44,1)</f>
         <v>36526</v>
@@ -2921,7 +2920,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f>EDATE(A46,1)</f>
         <v>36557</v>
@@ -2942,7 +2941,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" ref="A48:A56" si="3">EDATE(A47,1)</f>
         <v>36586</v>
@@ -2969,7 +2968,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="3"/>
         <v>36617</v>
@@ -2990,7 +2989,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="3"/>
         <v>36647</v>
@@ -3017,7 +3016,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -3042,7 +3041,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -3063,7 +3062,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -3084,7 +3083,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="3"/>
         <v>36770</v>
@@ -3105,7 +3104,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f t="shared" si="3"/>
         <v>36800</v>
@@ -3130,7 +3129,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f t="shared" si="3"/>
         <v>36831</v>
@@ -3157,7 +3156,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>107</v>
@@ -3174,7 +3173,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f>EDATE(A56,1)</f>
         <v>36861</v>
@@ -3195,7 +3194,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>109</v>
       </c>
@@ -3213,7 +3212,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f>EDATE(A58,1)</f>
         <v>36892</v>
@@ -3234,7 +3233,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f>EDATE(A60,1)</f>
         <v>36923</v>
@@ -3259,7 +3258,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f t="shared" ref="A62:A70" si="4">EDATE(A61,1)</f>
         <v>36951</v>
@@ -3280,7 +3279,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" si="4"/>
         <v>36982</v>
@@ -3301,7 +3300,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f t="shared" si="4"/>
         <v>37012</v>
@@ -3328,7 +3327,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f t="shared" si="4"/>
         <v>37043</v>
@@ -3349,7 +3348,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -3370,7 +3369,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="4"/>
         <v>37104</v>
@@ -3391,7 +3390,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="4"/>
         <v>37135</v>
@@ -3412,7 +3411,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f t="shared" si="4"/>
         <v>37165</v>
@@ -3433,7 +3432,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f t="shared" si="4"/>
         <v>37196</v>
@@ -3460,7 +3459,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>51</v>
@@ -3479,7 +3478,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f>EDATE(A70,1)</f>
         <v>37226</v>
@@ -3500,7 +3499,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>110</v>
       </c>
@@ -3518,7 +3517,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f>EDATE(A72,1)</f>
         <v>37257</v>
@@ -3539,7 +3538,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f>EDATE(A74,1)</f>
         <v>37288</v>
@@ -3560,7 +3559,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f t="shared" ref="A76:A85" si="5">EDATE(A75,1)</f>
         <v>37316</v>
@@ -3585,7 +3584,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f t="shared" si="5"/>
         <v>37347</v>
@@ -3610,7 +3609,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -3631,7 +3630,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -3658,7 +3657,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -3687,7 +3686,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -3712,7 +3711,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" si="5"/>
         <v>37500</v>
@@ -3733,7 +3732,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" si="5"/>
         <v>37530</v>
@@ -3758,7 +3757,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="5"/>
         <v>37561</v>
@@ -3779,7 +3778,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f t="shared" si="5"/>
         <v>37591</v>
@@ -3804,7 +3803,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>111</v>
       </c>
@@ -3822,7 +3821,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f>EDATE(A85,1)</f>
         <v>37622</v>
@@ -3849,7 +3848,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f>EDATE(A87,1)</f>
         <v>37653</v>
@@ -3870,7 +3869,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f t="shared" ref="A89:A100" si="6">EDATE(A88,1)</f>
         <v>37681</v>
@@ -3891,7 +3890,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f t="shared" si="6"/>
         <v>37712</v>
@@ -3912,7 +3911,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -3939,7 +3938,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f t="shared" si="6"/>
         <v>37773</v>
@@ -3966,7 +3965,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>45</v>
@@ -3985,7 +3984,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f>EDATE(A92,1)</f>
         <v>37803</v>
@@ -4012,7 +4011,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -4033,7 +4032,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="6"/>
         <v>37865</v>
@@ -4060,7 +4059,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -4087,7 +4086,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>100</v>
@@ -4104,7 +4103,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <f>EDATE(A97,1)</f>
         <v>37926</v>
@@ -4125,7 +4124,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f t="shared" si="6"/>
         <v>37956</v>
@@ -4146,7 +4145,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>125</v>
       </c>
@@ -4164,7 +4163,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f>EDATE(A100,1)</f>
         <v>37987</v>
@@ -4191,7 +4190,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>45</v>
@@ -4210,7 +4209,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f>EDATE(A102,1)</f>
         <v>38018</v>
@@ -4237,7 +4236,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f t="shared" ref="A105:A114" si="7">EDATE(A104,1)</f>
         <v>38047</v>
@@ -4258,7 +4257,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f t="shared" si="7"/>
         <v>38078</v>
@@ -4285,7 +4284,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -4306,7 +4305,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -4327,7 +4326,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -4348,7 +4347,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -4375,7 +4374,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -4396,7 +4395,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f t="shared" si="7"/>
         <v>38261</v>
@@ -4417,7 +4416,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f t="shared" si="7"/>
         <v>38292</v>
@@ -4438,7 +4437,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f t="shared" si="7"/>
         <v>38322</v>
@@ -4465,7 +4464,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>126</v>
       </c>
@@ -4483,7 +4482,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f>EDATE(A114,1)</f>
         <v>38353</v>
@@ -4510,7 +4509,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f>EDATE(A116,1)</f>
         <v>38384</v>
@@ -4535,7 +4534,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f t="shared" ref="A118:A129" si="8">EDATE(A117,1)</f>
         <v>38412</v>
@@ -4560,7 +4559,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f t="shared" si="8"/>
         <v>38443</v>
@@ -4585,7 +4584,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>134</v>
@@ -4604,7 +4603,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>135</v>
@@ -4621,7 +4620,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f>EDATE(A119,1)</f>
         <v>38473</v>
@@ -4642,7 +4641,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f t="shared" si="8"/>
         <v>38504</v>
@@ -4669,7 +4668,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <f t="shared" si="8"/>
         <v>38534</v>
@@ -4694,7 +4693,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f t="shared" si="8"/>
         <v>38565</v>
@@ -4719,7 +4718,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <f t="shared" si="8"/>
         <v>38596</v>
@@ -4740,7 +4739,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <f t="shared" si="8"/>
         <v>38626</v>
@@ -4767,7 +4766,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -4788,7 +4787,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f t="shared" si="8"/>
         <v>38687</v>
@@ -4809,7 +4808,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>140</v>
       </c>
@@ -4827,7 +4826,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f>EDATE(A129,1)</f>
         <v>38718</v>
@@ -4854,7 +4853,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>132</v>
@@ -4871,7 +4870,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f>EDATE(A131,1)</f>
         <v>38749</v>
@@ -4896,7 +4895,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f t="shared" ref="A134:A144" si="9">EDATE(A133,1)</f>
         <v>38777</v>
@@ -4923,7 +4922,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>143</v>
@@ -4940,7 +4939,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <f>EDATE(A134,1)</f>
         <v>38808</v>
@@ -4965,7 +4964,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f t="shared" si="9"/>
         <v>38838</v>
@@ -4992,7 +4991,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>146</v>
@@ -5009,7 +5008,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f>EDATE(A137,1)</f>
         <v>38869</v>
@@ -5034,7 +5033,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -5061,7 +5060,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <f t="shared" si="9"/>
         <v>38930</v>
@@ -5082,7 +5081,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f>EDATE(A141,1)</f>
         <v>38961</v>
@@ -5107,7 +5106,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -5132,7 +5131,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f t="shared" si="9"/>
         <v>39022</v>
@@ -5159,7 +5158,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>148</v>
@@ -5178,7 +5177,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>149</v>
@@ -5195,7 +5194,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f>EDATE(A144,1)</f>
         <v>39052</v>
@@ -5220,7 +5219,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="48" t="s">
         <v>153</v>
       </c>
@@ -5238,7 +5237,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <f>EDATE(A147,1)</f>
         <v>39083</v>
@@ -5263,7 +5262,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <f>EDATE(A149,1)</f>
         <v>39114</v>
@@ -5288,7 +5287,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <f t="shared" ref="A151:A166" si="10">EDATE(A150,1)</f>
         <v>39142</v>
@@ -5313,7 +5312,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <f t="shared" si="10"/>
         <v>39173</v>
@@ -5338,7 +5337,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>45</v>
@@ -5357,7 +5356,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>48</v>
@@ -5376,7 +5375,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>48</v>
@@ -5395,7 +5394,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>159</v>
@@ -5412,7 +5411,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="55"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <f>EDATE(A152,1)</f>
         <v>39203</v>
@@ -5439,7 +5438,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>134</v>
@@ -5458,7 +5457,7 @@
         <v>45074</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f>EDATE(A157,1)</f>
         <v>39234</v>
@@ -5479,7 +5478,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <f t="shared" si="10"/>
         <v>39264</v>
@@ -5500,7 +5499,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <f t="shared" si="10"/>
         <v>39295</v>
@@ -5525,7 +5524,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <f t="shared" si="10"/>
         <v>39326</v>
@@ -5552,7 +5551,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>136</v>
@@ -5569,7 +5568,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <f>EDATE(A162,1)</f>
         <v>39356</v>
@@ -5594,7 +5593,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <f t="shared" si="10"/>
         <v>39387</v>
@@ -5619,7 +5618,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <f t="shared" si="10"/>
         <v>39417</v>
@@ -5644,7 +5643,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="48" t="s">
         <v>167</v>
       </c>
@@ -5662,7 +5661,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <f>EDATE(A166,1)</f>
         <v>39448</v>
@@ -5687,7 +5686,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <f>EDATE(A168,1)</f>
         <v>39479</v>
@@ -5712,7 +5711,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <f t="shared" ref="A170:A183" si="11">EDATE(A169,1)</f>
         <v>39508</v>
@@ -5737,7 +5736,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>61</v>
@@ -5756,7 +5755,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>170</v>
@@ -5773,7 +5772,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <f>EDATE(A170,1)</f>
         <v>39539</v>
@@ -5800,7 +5799,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <f t="shared" si="11"/>
         <v>39569</v>
@@ -5821,7 +5820,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -5846,7 +5845,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <f t="shared" si="11"/>
         <v>39630</v>
@@ -5873,7 +5872,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>176</v>
@@ -5890,7 +5889,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <f>EDATE(A176,1)</f>
         <v>39661</v>
@@ -5915,7 +5914,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f t="shared" si="11"/>
         <v>39692</v>
@@ -5940,7 +5939,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <f t="shared" si="11"/>
         <v>39722</v>
@@ -5967,7 +5966,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>70</v>
@@ -5986,7 +5985,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <f>EDATE(A180,1)</f>
         <v>39753</v>
@@ -6013,7 +6012,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <f t="shared" si="11"/>
         <v>39783</v>
@@ -6034,7 +6033,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="48" t="s">
         <v>180</v>
       </c>
@@ -6052,7 +6051,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <f>EDATE(A183,1)</f>
         <v>39814</v>
@@ -6079,7 +6078,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>181</v>
@@ -6096,7 +6095,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <f>EDATE(A185,1)</f>
         <v>39845</v>
@@ -6121,7 +6120,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <f t="shared" ref="A188:A201" si="12">EDATE(A187,1)</f>
         <v>39873</v>
@@ -6148,7 +6147,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>47</v>
@@ -6165,7 +6164,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>176</v>
@@ -6182,7 +6181,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <f>EDATE(A188,1)</f>
         <v>39904</v>
@@ -6207,7 +6206,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f t="shared" si="12"/>
         <v>39934</v>
@@ -6232,7 +6231,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>74</v>
@@ -6251,7 +6250,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>132</v>
@@ -6268,7 +6267,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <f>EDATE(A192,1)</f>
         <v>39965</v>
@@ -6293,7 +6292,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f t="shared" si="12"/>
         <v>39995</v>
@@ -6318,7 +6317,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <f t="shared" si="12"/>
         <v>40026</v>
@@ -6343,7 +6342,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -6368,7 +6367,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <f>EDATE(A198,1)</f>
         <v>40087</v>
@@ -6393,7 +6392,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <f t="shared" si="12"/>
         <v>40118</v>
@@ -6418,7 +6417,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <f t="shared" si="12"/>
         <v>40148</v>
@@ -6443,7 +6442,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="48" t="s">
         <v>189</v>
       </c>
@@ -6461,7 +6460,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="52"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <f>EDATE(A201,1)</f>
         <v>40179</v>
@@ -6486,7 +6485,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <f>EDATE(A203,1)</f>
         <v>40210</v>
@@ -6511,7 +6510,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <f t="shared" ref="A205:A215" si="13">EDATE(A204,1)</f>
         <v>40238</v>
@@ -6536,7 +6535,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>59</v>
@@ -6555,7 +6554,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>188</v>
@@ -6572,7 +6571,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <f>EDATE(A205,1)</f>
         <v>40269</v>
@@ -6597,7 +6596,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <f t="shared" si="13"/>
         <v>40299</v>
@@ -6622,7 +6621,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <f t="shared" si="13"/>
         <v>40330</v>
@@ -6649,7 +6648,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>193</v>
@@ -6666,7 +6665,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <f>EDATE(A210,1)</f>
         <v>40360</v>
@@ -6691,7 +6690,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -6716,7 +6715,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <f t="shared" si="13"/>
         <v>40422</v>
@@ -6741,7 +6740,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <f t="shared" si="13"/>
         <v>40452</v>
@@ -6768,7 +6767,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>198</v>
@@ -6785,7 +6784,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <f>EDATE(A215,1)</f>
         <v>40483</v>
@@ -6810,7 +6809,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <f>EDATE(A217,1)</f>
         <v>40513</v>
@@ -6835,7 +6834,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="48" t="s">
         <v>200</v>
       </c>
@@ -6853,7 +6852,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <f>EDATE(A218,1)</f>
         <v>40544</v>
@@ -6878,7 +6877,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <f>EDATE(A220,1)</f>
         <v>40575</v>
@@ -6903,7 +6902,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>202</v>
@@ -6920,7 +6919,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <f>EDATE(A221,1)</f>
         <v>40603</v>
@@ -6947,7 +6946,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>47</v>
@@ -6964,7 +6963,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>91</v>
@@ -6983,7 +6982,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>199</v>
@@ -7000,7 +6999,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <f>EDATE(A223,1)</f>
         <v>40634</v>
@@ -7027,7 +7026,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>47</v>
@@ -7044,7 +7043,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <f>EDATE(A227,1)</f>
         <v>40664</v>
@@ -7069,7 +7068,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <f t="shared" ref="A230:A235" si="14">EDATE(A229,1)</f>
         <v>40695</v>
@@ -7090,7 +7089,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <f t="shared" si="14"/>
         <v>40725</v>
@@ -7111,7 +7110,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f t="shared" si="14"/>
         <v>40756</v>
@@ -7132,7 +7131,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -7159,7 +7158,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <f t="shared" si="14"/>
         <v>40817</v>
@@ -7180,7 +7179,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <f t="shared" si="14"/>
         <v>40848</v>
@@ -7205,7 +7204,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f>EDATE(A235,1)</f>
         <v>40878</v>
@@ -7232,7 +7231,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>207</v>
@@ -7252,7 +7251,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="48" t="s">
         <v>216</v>
       </c>
@@ -7270,7 +7269,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <f>EDATE(A236,1)</f>
         <v>40909</v>
@@ -7295,7 +7294,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <f>EDATE(A239,1)</f>
         <v>40940</v>
@@ -7320,7 +7319,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <f t="shared" ref="A241:A250" si="15">EDATE(A240,1)</f>
         <v>40969</v>
@@ -7345,7 +7344,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <f t="shared" si="15"/>
         <v>41000</v>
@@ -7372,7 +7371,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <f t="shared" si="15"/>
         <v>41030</v>
@@ -7399,7 +7398,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <f t="shared" si="15"/>
         <v>41061</v>
@@ -7420,7 +7419,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <f t="shared" si="15"/>
         <v>41091</v>
@@ -7441,7 +7440,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f t="shared" si="15"/>
         <v>41122</v>
@@ -7468,7 +7467,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>217</v>
@@ -7485,7 +7484,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <f>EDATE(A246,1)</f>
         <v>41153</v>
@@ -7510,7 +7509,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -7537,7 +7536,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <f t="shared" si="15"/>
         <v>41214</v>
@@ -7562,7 +7561,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <f>EDATE(A250,1)</f>
         <v>41244</v>
@@ -7589,7 +7588,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>131</v>
@@ -7609,7 +7608,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="48" t="s">
         <v>222</v>
       </c>
@@ -7627,7 +7626,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f>EDATE(A251,1)</f>
         <v>41275</v>
@@ -7652,7 +7651,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <f>EDATE(A254,1)</f>
         <v>41306</v>
@@ -7673,7 +7672,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <f t="shared" ref="A256:A263" si="16">EDATE(A255,1)</f>
         <v>41334</v>
@@ -7694,7 +7693,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <f t="shared" si="16"/>
         <v>41365</v>
@@ -7721,7 +7720,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>70</v>
@@ -7740,7 +7739,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>224</v>
@@ -7757,7 +7756,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <f>EDATE(A257,1)</f>
         <v>41395</v>
@@ -7782,7 +7781,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f t="shared" si="16"/>
         <v>41426</v>
@@ -7803,7 +7802,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <f t="shared" si="16"/>
         <v>41456</v>
@@ -7828,7 +7827,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <f t="shared" si="16"/>
         <v>41487</v>
@@ -7855,7 +7854,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>48</v>
@@ -7874,7 +7873,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>227</v>
@@ -7891,7 +7890,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f>EDATE(A263,1)</f>
         <v>41518</v>
@@ -7918,7 +7917,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>228</v>
@@ -7935,7 +7934,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <f>EDATE(A266,1)</f>
         <v>41548</v>
@@ -7962,7 +7961,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>231</v>
@@ -7979,7 +7978,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <f>EDATE(A268,1)</f>
         <v>41579</v>
@@ -8006,7 +8005,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>134</v>
@@ -8025,7 +8024,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>232</v>
@@ -8042,7 +8041,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <f>EDATE(A270,1)</f>
         <v>41609</v>
@@ -8067,7 +8066,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>70</v>
@@ -8089,7 +8088,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>164</v>
@@ -8109,7 +8108,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="48" t="s">
         <v>236</v>
       </c>
@@ -8127,7 +8126,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <f>EDATE(A273,1)</f>
         <v>41640</v>
@@ -8152,7 +8151,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <f>EDATE(A277,1)</f>
         <v>41671</v>
@@ -8179,7 +8178,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>227</v>
@@ -8196,7 +8195,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f>EDATE(A278,1)</f>
         <v>41699</v>
@@ -8223,7 +8222,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>47</v>
@@ -8240,7 +8239,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>238</v>
@@ -8257,7 +8256,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <f>EDATE(A280,1)</f>
         <v>41730</v>
@@ -8284,7 +8283,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>225</v>
@@ -8301,7 +8300,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <f>EDATE(A283,1)</f>
         <v>41760</v>
@@ -8328,7 +8327,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>203</v>
@@ -8347,7 +8346,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>239</v>
@@ -8366,7 +8365,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>244</v>
@@ -8383,7 +8382,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <f>EDATE(A285,1)</f>
         <v>41791</v>
@@ -8408,7 +8407,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <f t="shared" ref="A290:A296" si="17">EDATE(A289,1)</f>
         <v>41821</v>
@@ -8433,7 +8432,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -8458,7 +8457,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <f t="shared" si="17"/>
         <v>41883</v>
@@ -8479,7 +8478,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -8506,7 +8505,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>106</v>
@@ -8523,7 +8522,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <f>EDATE(A293,1)</f>
         <v>41944</v>
@@ -8548,7 +8547,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <f t="shared" si="17"/>
         <v>41974</v>
@@ -8575,7 +8574,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>73</v>
@@ -8595,7 +8594,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>249</v>
@@ -8615,7 +8614,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="48" t="s">
         <v>253</v>
       </c>
@@ -8633,7 +8632,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <f>EDATE(A296,1)</f>
         <v>42005</v>
@@ -8658,7 +8657,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <f>EDATE(A300,1)</f>
         <v>42036</v>
@@ -8683,7 +8682,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <f t="shared" ref="A302:A311" si="18">EDATE(A301,1)</f>
         <v>42064</v>
@@ -8710,7 +8709,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>47</v>
@@ -8727,7 +8726,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>255</v>
@@ -8744,7 +8743,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <f>EDATE(A302,1)</f>
         <v>42095</v>
@@ -8769,7 +8768,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>256</v>
@@ -8786,7 +8785,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <f>EDATE(A305,1)</f>
         <v>42125</v>
@@ -8811,7 +8810,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <f t="shared" si="18"/>
         <v>42156</v>
@@ -8836,7 +8835,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -8861,7 +8860,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <f t="shared" si="18"/>
         <v>42217</v>
@@ -8886,7 +8885,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <f t="shared" si="18"/>
         <v>42248</v>
@@ -8913,7 +8912,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>48</v>
@@ -8932,7 +8931,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>261</v>
@@ -8949,7 +8948,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f>EDATE(A311,1)</f>
         <v>42278</v>
@@ -8976,7 +8975,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>264</v>
@@ -8993,7 +8992,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <f>EDATE(A314,1)</f>
         <v>42309</v>
@@ -9018,7 +9017,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <f>EDATE(A316,1)</f>
         <v>42339</v>
@@ -9043,7 +9042,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="48" t="s">
         <v>266</v>
       </c>
@@ -9061,7 +9060,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <f>EDATE(A317,1)</f>
         <v>42370</v>
@@ -9086,7 +9085,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <f>EDATE(A319,1)</f>
         <v>42401</v>
@@ -9113,7 +9112,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>268</v>
@@ -9130,7 +9129,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <f>EDATE(A320,1)</f>
         <v>42430</v>
@@ -9157,7 +9156,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>269</v>
@@ -9174,7 +9173,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <f>EDATE(A322,1)</f>
         <v>42461</v>
@@ -9199,7 +9198,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <f t="shared" ref="A325:A331" si="19">EDATE(A324,1)</f>
         <v>42491</v>
@@ -9224,7 +9223,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -9249,7 +9248,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -9276,7 +9275,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>274</v>
@@ -9293,7 +9292,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <f>EDATE(A327,1)</f>
         <v>42583</v>
@@ -9318,7 +9317,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <f t="shared" si="19"/>
         <v>42614</v>
@@ -9343,7 +9342,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -9370,7 +9369,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>181</v>
@@ -9387,7 +9386,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <f>EDATE(A331,1)</f>
         <v>42675</v>
@@ -9412,7 +9411,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>46</v>
@@ -9431,7 +9430,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <f>EDATE(A333,1)</f>
         <v>42705</v>
@@ -9458,7 +9457,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>278</v>
@@ -9478,7 +9477,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="48" t="s">
         <v>282</v>
       </c>
@@ -9496,7 +9495,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <f>EDATE(A335,1)</f>
         <v>42736</v>
@@ -9523,7 +9522,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>59</v>
@@ -9542,7 +9541,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <f>EDATE(A338,1)</f>
         <v>42767</v>
@@ -9563,7 +9562,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f t="shared" ref="A341:A351" si="20">EDATE(A340,1)</f>
         <v>42795</v>
@@ -9590,7 +9589,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <f t="shared" si="20"/>
         <v>42826</v>
@@ -9611,7 +9610,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <f t="shared" si="20"/>
         <v>42856</v>
@@ -9638,7 +9637,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>48</v>
@@ -9657,7 +9656,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <f>EDATE(A343,1)</f>
         <v>42887</v>
@@ -9684,7 +9683,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <f t="shared" si="20"/>
         <v>42917</v>
@@ -9709,7 +9708,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <f t="shared" si="20"/>
         <v>42948</v>
@@ -9736,7 +9735,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <f t="shared" si="20"/>
         <v>42979</v>
@@ -9763,7 +9762,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>51</v>
@@ -9782,7 +9781,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <f>EDATE(A348,1)</f>
         <v>43009</v>
@@ -9803,7 +9802,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <f t="shared" si="20"/>
         <v>43040</v>
@@ -9824,7 +9823,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <f>EDATE(A351,1)</f>
         <v>43070</v>
@@ -9851,7 +9850,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>48</v>
@@ -9873,7 +9872,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="48" t="s">
         <v>44</v>
       </c>
@@ -9895,7 +9894,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>43101</v>
       </c>
@@ -9915,7 +9914,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>43132</v>
       </c>
@@ -9941,7 +9940,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>43160</v>
       </c>
@@ -9961,7 +9960,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>43191</v>
       </c>
@@ -9987,7 +9986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>43221</v>
       </c>
@@ -10011,7 +10010,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>45</v>
@@ -10030,7 +10029,7 @@
         <v>43230</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>43252</v>
       </c>
@@ -10054,7 +10053,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>48</v>
@@ -10073,7 +10072,7 @@
         <v>43265</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>48</v>
@@ -10092,7 +10091,7 @@
         <v>43279</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>43282</v>
       </c>
@@ -10118,7 +10117,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>43313</v>
       </c>
@@ -10144,7 +10143,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>43344</v>
       </c>
@@ -10170,7 +10169,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>43374</v>
       </c>
@@ -10196,7 +10195,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>51</v>
@@ -10215,7 +10214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>43405</v>
       </c>
@@ -10241,7 +10240,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>43435</v>
       </c>
@@ -10267,7 +10266,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="48" t="s">
         <v>57</v>
       </c>
@@ -10285,7 +10284,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>43466</v>
       </c>
@@ -10305,7 +10304,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>43497</v>
       </c>
@@ -10325,7 +10324,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>43525</v>
       </c>
@@ -10351,7 +10350,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>47</v>
@@ -10368,7 +10367,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>43556</v>
       </c>
@@ -10394,7 +10393,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>61</v>
@@ -10413,7 +10412,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>43586</v>
       </c>
@@ -10433,7 +10432,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>43617</v>
       </c>
@@ -10459,7 +10458,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>43647</v>
       </c>
@@ -10485,7 +10484,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>43678</v>
       </c>
@@ -10505,7 +10504,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>43709</v>
       </c>
@@ -10531,7 +10530,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>43739</v>
       </c>
@@ -10557,7 +10556,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>43770</v>
       </c>
@@ -10583,7 +10582,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>43800</v>
       </c>
@@ -10603,7 +10602,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="48" t="s">
         <v>58</v>
       </c>
@@ -10621,7 +10620,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>43831</v>
       </c>
@@ -10641,7 +10640,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>43862</v>
       </c>
@@ -10661,7 +10660,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>43891</v>
       </c>
@@ -10681,7 +10680,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>43922</v>
       </c>
@@ -10701,7 +10700,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>43952</v>
       </c>
@@ -10721,7 +10720,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>43983</v>
       </c>
@@ -10741,7 +10740,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>44013</v>
       </c>
@@ -10761,7 +10760,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>44044</v>
       </c>
@@ -10781,7 +10780,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>44075</v>
       </c>
@@ -10807,7 +10806,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>45</v>
@@ -10826,7 +10825,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>44105</v>
       </c>
@@ -10846,7 +10845,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>44136</v>
       </c>
@@ -10866,7 +10865,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>44166</v>
       </c>
@@ -10892,7 +10891,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>70</v>
@@ -10912,7 +10911,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="48" t="s">
         <v>72</v>
       </c>
@@ -10930,7 +10929,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>44197</v>
       </c>
@@ -10950,7 +10949,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>44228</v>
       </c>
@@ -10976,7 +10975,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>44256</v>
       </c>
@@ -10996,7 +10995,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>44287</v>
       </c>
@@ -11020,7 +11019,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>44317</v>
       </c>
@@ -11040,7 +11039,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>44348</v>
       </c>
@@ -11060,7 +11059,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>44378</v>
       </c>
@@ -11080,7 +11079,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>44409</v>
       </c>
@@ -11100,7 +11099,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>44440</v>
       </c>
@@ -11120,7 +11119,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>44470</v>
       </c>
@@ -11146,7 +11145,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>44501</v>
       </c>
@@ -11170,7 +11169,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>44531</v>
       </c>
@@ -11194,7 +11193,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="48" t="s">
         <v>76</v>
       </c>
@@ -11212,7 +11211,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>44562</v>
       </c>
@@ -11232,7 +11231,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>44593</v>
       </c>
@@ -11252,7 +11251,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>44621</v>
       </c>
@@ -11276,7 +11275,7 @@
         <v>44623</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>45</v>
@@ -11295,7 +11294,7 @@
         <v>44636</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>45</v>
@@ -11314,7 +11313,7 @@
         <v>44636</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>44652</v>
       </c>
@@ -11338,7 +11337,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>44682</v>
       </c>
@@ -11362,7 +11361,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>48</v>
@@ -11381,7 +11380,7 @@
         <v>44722</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>44713</v>
       </c>
@@ -11407,7 +11406,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>60</v>
@@ -11426,7 +11425,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>44743</v>
       </c>
@@ -11446,7 +11445,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>44774</v>
       </c>
@@ -11472,7 +11471,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>78</v>
@@ -11491,7 +11490,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>44805</v>
       </c>
@@ -11517,7 +11516,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>44835</v>
       </c>
@@ -11543,7 +11542,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>44866</v>
       </c>
@@ -11563,7 +11562,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>44896</v>
       </c>
@@ -11589,7 +11588,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="48" t="s">
         <v>83</v>
       </c>
@@ -11607,7 +11606,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>44927</v>
       </c>
@@ -11633,7 +11632,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>44958</v>
       </c>
@@ -11653,7 +11652,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>44986</v>
       </c>
@@ -11677,7 +11676,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>45017</v>
       </c>
@@ -11703,7 +11702,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>45047</v>
       </c>
@@ -11729,25 +11728,27 @@
         <v>289</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>45078</v>
       </c>
       <c r="B438" s="20"/>
-      <c r="C438" s="13"/>
+      <c r="C438" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D438" s="39"/>
       <c r="E438" s="9"/>
       <c r="F438" s="20"/>
-      <c r="G438" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G438" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H438" s="39"/>
       <c r="I438" s="9"/>
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>45108</v>
       </c>
@@ -11765,7 +11766,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>45139</v>
       </c>
@@ -11783,7 +11784,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>45170</v>
       </c>
@@ -11801,7 +11802,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>45200</v>
       </c>
@@ -11819,7 +11820,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>45231</v>
       </c>
@@ -11837,7 +11838,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>45261</v>
       </c>
@@ -11855,7 +11856,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>45292</v>
       </c>
@@ -11873,7 +11874,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>45323</v>
       </c>
@@ -11891,7 +11892,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>45352</v>
       </c>
@@ -11909,7 +11910,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>45383</v>
       </c>
@@ -11927,7 +11928,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>45413</v>
       </c>
@@ -11945,7 +11946,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>45444</v>
       </c>
@@ -11963,7 +11964,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>45474</v>
       </c>
@@ -11981,7 +11982,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>45505</v>
       </c>
@@ -11999,7 +12000,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>45536</v>
       </c>
@@ -12017,7 +12018,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>45566</v>
       </c>
@@ -12035,7 +12036,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>45597</v>
       </c>
@@ -12053,7 +12054,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>45627</v>
       </c>
@@ -12071,7 +12072,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>45658</v>
       </c>
@@ -12089,7 +12090,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>45689</v>
       </c>
@@ -12107,7 +12108,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>45717</v>
       </c>
@@ -12125,7 +12126,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>45748</v>
       </c>
@@ -12143,7 +12144,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>45778</v>
       </c>
@@ -12161,7 +12162,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>45809</v>
       </c>
@@ -12179,7 +12180,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>45839</v>
       </c>
@@ -12197,7 +12198,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>45870</v>
       </c>
@@ -12215,7 +12216,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>45901</v>
       </c>
@@ -12233,7 +12234,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>45931</v>
       </c>
@@ -12251,7 +12252,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>45962</v>
       </c>
@@ -12269,7 +12270,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>45992</v>
       </c>
@@ -12287,7 +12288,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>46023</v>
       </c>
@@ -12305,7 +12306,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>46054</v>
       </c>
@@ -12323,7 +12324,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>46082</v>
       </c>
@@ -12341,7 +12342,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>46113</v>
       </c>
@@ -12359,7 +12360,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>46143</v>
       </c>
@@ -12377,7 +12378,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>46174</v>
       </c>
@@ -12395,7 +12396,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>46204</v>
       </c>
@@ -12413,7 +12414,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>46235</v>
       </c>
@@ -12431,7 +12432,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12447,7 +12448,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12463,7 +12464,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12479,7 +12480,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12495,7 +12496,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12511,7 +12512,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12527,7 +12528,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12543,7 +12544,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12559,7 +12560,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12575,7 +12576,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="41"/>
       <c r="B486" s="15"/>
       <c r="C486" s="42"/>
@@ -12606,10 +12607,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12632,28 +12633,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -12666,7 +12667,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12695,7 +12696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -12721,17 +12722,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12752,7 +12753,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12779,7 +12780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12805,7 +12806,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12831,7 +12832,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12857,7 +12858,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12883,7 +12884,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12909,7 +12910,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12935,7 +12936,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12961,7 +12962,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12981,7 +12982,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13001,7 +13002,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13021,7 +13022,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13042,7 +13043,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13063,7 +13064,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13084,7 +13085,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13105,7 +13106,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13126,7 +13127,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13147,7 +13148,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13168,7 +13169,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13189,7 +13190,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13210,7 +13211,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13231,7 +13232,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13252,7 +13253,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13273,7 +13274,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13294,7 +13295,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13315,7 +13316,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13336,7 +13337,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13357,7 +13358,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13378,7 +13379,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13399,7 +13400,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13420,7 +13421,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13441,7 +13442,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13450,7 +13451,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13459,7 +13460,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13468,7 +13469,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13477,7 +13478,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13486,7 +13487,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13495,7 +13496,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13504,7 +13505,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13513,7 +13514,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13522,7 +13523,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13531,7 +13532,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13540,7 +13541,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13549,7 +13550,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13558,7 +13559,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13567,7 +13568,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13576,7 +13577,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13585,7 +13586,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13594,7 +13595,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13603,7 +13604,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13612,7 +13613,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13621,7 +13622,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13630,7 +13631,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13639,7 +13640,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13648,7 +13649,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13657,7 +13658,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13666,7 +13667,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13675,7 +13676,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13684,7 +13685,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13693,7 +13694,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13702,7 +13703,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
